--- a/data/trans_bre/P1412-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1412-Provincia-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-0.09035548200178974</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.3431346016390988</v>
+        <v>-0.3431346016390989</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.4136006726495968</v>
@@ -627,7 +627,7 @@
         <v>-0.2039427266523809</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.6982314710066289</v>
+        <v>-0.698231471006629</v>
       </c>
     </row>
     <row r="5">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.235412025844159</v>
+        <v>-2.251888599551399</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.732232465408654</v>
+        <v>-1.506574721145903</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.604841235663794</v>
+        <v>-1.407047611915285</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.101957696203397</v>
+        <v>0.912866119536367</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7103552603363359</v>
+        <v>0.7077197005346293</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.152534408476068</v>
+        <v>0.1546975098021634</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
@@ -708,18 +708,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6005725960295935</v>
+        <v>-0.6109250167364675</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.623147580353621</v>
+        <v>-1.468862024101229</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.351218561281202</v>
+        <v>-1.331350634557783</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
-      <c r="G8" s="6" t="inlineStr"/>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9974953540595172</v>
       </c>
     </row>
     <row r="9">
@@ -730,18 +732,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.104438551948304</v>
+        <v>1.214347475938763</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6420858190318225</v>
+        <v>0.6614429546575293</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4397400139513183</v>
+        <v>0.4182822772732502</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
-      <c r="G9" s="6" t="inlineStr"/>
+      <c r="G9" s="6" t="n">
+        <v>2.611040358023966</v>
+      </c>
       <c r="H9" s="6" t="n">
-        <v>2.242769657821676</v>
+        <v>2.295385514275813</v>
       </c>
     </row>
     <row r="10">
@@ -762,7 +766,7 @@
         <v>-0.4805658781003777</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.412730584928965</v>
+        <v>-0.4127305849289649</v>
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
@@ -773,7 +777,7 @@
         <v>-1</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.2824923872370741</v>
+        <v>-0.282492387237074</v>
       </c>
     </row>
     <row r="11">
@@ -787,15 +791,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.700810213138622</v>
+        <v>-1.678765501947678</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.028589094774552</v>
+        <v>-1.965321041993947</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.8050532944798827</v>
+        <v>-0.818663275314919</v>
       </c>
     </row>
     <row r="12">
@@ -806,18 +810,18 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.990182695412196</v>
+        <v>1.599905707918738</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9106894650549554</v>
+        <v>0.859246306812813</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>1.812597294363933</v>
+        <v>1.489125764016374</v>
       </c>
     </row>
     <row r="13">
@@ -858,18 +862,18 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6166390287795731</v>
+        <v>-0.626905030114738</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.770913579629376</v>
+        <v>-2.033345872776039</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.82000485154265</v>
-      </c>
-      <c r="F14" s="6" t="inlineStr"/>
-      <c r="G14" s="6" t="n">
+        <v>-3.840404449598383</v>
+      </c>
+      <c r="F14" s="6" t="n">
         <v>-1</v>
       </c>
+      <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
         <v>-1</v>
       </c>
@@ -882,20 +886,18 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.204841174136582</v>
+        <v>2.32892713406715</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.090127929089222</v>
+        <v>1.047514348360191</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.7895270809826919</v>
+        <v>-0.7195662396412643</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
-      <c r="G15" s="6" t="n">
-        <v>3.10029644831549</v>
-      </c>
+      <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>-0.5317319613967935</v>
+        <v>-0.25666819948926</v>
       </c>
     </row>
     <row r="16">
@@ -938,10 +940,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.823747941057177</v>
+        <v>-6.446016701047366</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.937259196718668</v>
+        <v>-1.844987662174995</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
@@ -958,13 +960,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.3209439233642593</v>
+        <v>-0.1225826008230689</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.236750243752109</v>
+        <v>1.14224218010052</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="inlineStr"/>
@@ -1010,18 +1012,18 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3473202495469839</v>
+        <v>0.3447382284450964</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.302562158084502</v>
+        <v>-2.012690622536756</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.512583680103668</v>
+        <v>-2.323196119731705</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.8860260057906201</v>
+        <v>-0.8879226713536265</v>
       </c>
     </row>
     <row r="21">
@@ -1032,18 +1034,18 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.024709425381215</v>
+        <v>3.081587313224823</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1453898427121979</v>
+        <v>0.1784507433173022</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>0.5807122756714359</v>
+        <v>0.4636440272317649</v>
       </c>
     </row>
     <row r="22">
@@ -1084,22 +1086,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.041503127271322</v>
+        <v>-1.049029854029425</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.7157962065118629</v>
+        <v>-0.6953910954450819</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.163613729656883</v>
+        <v>-1.223072958860391</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.8748622265027562</v>
+        <v>-0.8772285355114068</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.687234176312965</v>
+        <v>-0.7302992957004592</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.7215802555364589</v>
+        <v>-0.720437027078252</v>
       </c>
     </row>
     <row r="24">
@@ -1110,22 +1112,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8134752265733793</v>
+        <v>0.748770720540587</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.537348780920468</v>
+        <v>1.523337210911368</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.700619326467868</v>
+        <v>0.7272397052602699</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>3.108138488224439</v>
+        <v>3.024055437334214</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>5.598900516845177</v>
+        <v>4.699479176426231</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.433028944017319</v>
+        <v>1.502439088462679</v>
       </c>
     </row>
     <row r="25">
@@ -1166,20 +1168,20 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.8375032506812343</v>
+        <v>-0.8344405389257717</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.111692858286429</v>
+        <v>-1.091563338309863</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.4745177085045305</v>
-      </c>
-      <c r="F26" s="6" t="inlineStr"/>
-      <c r="G26" s="6" t="n">
+        <v>-0.4794938352806224</v>
+      </c>
+      <c r="F26" s="6" t="n">
         <v>-1</v>
       </c>
+      <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>-0.7340306950683263</v>
+        <v>-0.7356311386716141</v>
       </c>
     </row>
     <row r="27">
@@ -1190,20 +1192,20 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6857016606890114</v>
+        <v>0.6754378975298203</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4220765246860917</v>
+        <v>0.350035341209787</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7338314606200694</v>
-      </c>
-      <c r="F27" s="6" t="inlineStr"/>
-      <c r="G27" s="6" t="n">
-        <v>1.816748395838228</v>
-      </c>
+        <v>0.743959341725529</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>3.056271879888215</v>
+      </c>
+      <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>5.331188269259879</v>
+        <v>6.930263679439399</v>
       </c>
     </row>
     <row r="28">
@@ -1244,22 +1246,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.356919786393723</v>
+        <v>-0.3787558286878761</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5985047621162787</v>
+        <v>-0.6495764488322336</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.72771543821339</v>
+        <v>-0.7602733274298666</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.4305494477214354</v>
+        <v>-0.4583820301839956</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.6390514527319607</v>
+        <v>-0.6666885994090532</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.6413935977594726</v>
+        <v>-0.6027763648804536</v>
       </c>
     </row>
     <row r="30">
@@ -1270,22 +1272,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4306279041000217</v>
+        <v>0.4403039440375304</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1778915113654507</v>
+        <v>0.1679158851305826</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.02462819732105157</v>
+        <v>-0.0450411527892384</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1.061640264197676</v>
+        <v>0.9857227945931539</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3771729096635495</v>
+        <v>0.3097932623061579</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.01898119258041164</v>
+        <v>0.001692721558090599</v>
       </c>
     </row>
     <row r="31">
